--- a/_CONCAT_DOWNER_Utilities.xlsx
+++ b/_CONCAT_DOWNER_Utilities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB393D8A-6C46-4503-A133-4DBB8F611A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DA166B-1BCC-4BD0-A536-C9FC486C20CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="435" windowWidth="26730" windowHeight="18030" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="870" yWindow="975" windowWidth="26730" windowHeight="18345" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,24 +61,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Visual</t>
   </si>
   <si>
     <t>V</t>
-  </si>
-  <si>
-    <t>Prior to commencement of works</t>
-  </si>
-  <si>
-    <t>During Installation</t>
   </si>
   <si>
     <t xml:space="preserve">On delivery </t>
@@ -88,69 +76,6 @@
   </si>
   <si>
     <t>CR, IP</t>
-  </si>
-  <si>
-    <t>Certification of welding equipment</t>
-  </si>
-  <si>
-    <t>Accepted by Client as suitable for use</t>
-  </si>
-  <si>
-    <t>Current calibration certificate/service record</t>
-  </si>
-  <si>
-    <t>Hold point</t>
-  </si>
-  <si>
-    <t>PE Welding – Operator and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inspection, Examine_x000D_
-</t>
-  </si>
-  <si>
-    <t>I, E</t>
-  </si>
-  <si>
-    <t>Test Sampling</t>
-  </si>
-  <si>
-    <t>O, R</t>
-  </si>
-  <si>
-    <t>Weld Completion</t>
-  </si>
-  <si>
-    <t>- Power App or manual records_x000D_
-- Data log from welding equipment_x000D_
-- Photo Log</t>
-  </si>
-  <si>
-    <t>Each weld</t>
-  </si>
-  <si>
-    <t>Check, Dimension Inspection</t>
-  </si>
-  <si>
-    <t>C, D, R</t>
-  </si>
-  <si>
-    <t>Completion of QA</t>
-  </si>
-  <si>
-    <t>- all necessary documents including HDPE welding compiled and handed over to ER in completeness.</t>
-  </si>
-  <si>
-    <t>Before practical completion</t>
-  </si>
-  <si>
-    <t>Inspection, Monitor on Random Basis</t>
-  </si>
-  <si>
-    <t>I, M</t>
-  </si>
-  <si>
-    <t>Ensure QA package complete.</t>
   </si>
   <si>
     <t>- each pipe welding location check pipes to be welded_x000D_
@@ -165,53 +90,6 @@
     <t>- Photo of markings and labels on pipe._x000D_
 - Delivery docket/ packing slip_x000D_
 - Scan bar code on fitting</t>
-  </si>
-  <si>
-    <t>Confirming just one EF welding machine in use during life of project.</t>
-  </si>
-  <si>
-    <t>- Competency certificate of welder and certificate of fitness for welding equipment _x000D_
-- Generator capacity adequate for the EF fittings.</t>
-  </si>
-  <si>
-    <t>Have peel decohesion test of weld samples carried out by an IANZ accredited laboratory.</t>
-  </si>
-  <si>
-    <t>- Current welding certificates of operatives_x000D_
-- Current calibration record of welding Equipment_x000D_
-- Peel decohesion test results</t>
-  </si>
-  <si>
-    <t>- Pass/Fail_x000D_
-- ISO 13953 (Testing)</t>
-  </si>
-  <si>
-    <t>Peel decohesion  test results from Kiwi Mechanical Ltd</t>
-  </si>
-  <si>
-    <t>- Every 20 welds per operator (or as requested by Client). _x000D_
-- Test frequency to be reduced in response to consistent pass results, with Engineers approval.</t>
-  </si>
-  <si>
-    <t>Operation, Review</t>
-  </si>
-  <si>
-    <t>WS/CR, IP</t>
-  </si>
-  <si>
-    <t>- Weld completed to required standard and specification._x000D_
-- Only move strings after EF’s have cooled!</t>
-  </si>
-  <si>
-    <t>- Pass/Fail_x000D_
-- PIPA POP001 version 8.1 2021 and POP014 _x000D_
-- EF controller printout for all EF joints</t>
-  </si>
-  <si>
-    <t>- Excel spreadsheet exported from Power App, includes weld photos and weld date from weld equipment.</t>
-  </si>
-  <si>
-    <t>one pre-qualification per operator, one pilot weld per machine/per DN.</t>
   </si>
 </sst>
 </file>
@@ -583,7 +461,7 @@
   <dimension ref="A1:AC155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -610,7 +488,9 @@
     <col min="21" max="21" width="7.140625" customWidth="1"/>
     <col min="22" max="22" width="12.28515625" customWidth="1"/>
     <col min="23" max="23" width="17.42578125" customWidth="1"/>
-    <col min="29" max="29" width="38.140625" customWidth="1"/>
+    <col min="27" max="27" width="1.85546875" customWidth="1"/>
+    <col min="28" max="28" width="2.42578125" customWidth="1"/>
+    <col min="29" max="29" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -645,28 +525,28 @@
         <v>3.1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S2" t="str">
         <f t="shared" ref="S2" si="0">A2&amp;" - "&amp;B2</f>
@@ -706,70 +586,17 @@
         <v>Inspection: By - CR, IP</v>
       </c>
       <c r="AC2" t="str" cm="1">
-        <f t="array" ref="AC2:AC49">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,S2:AA156)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
+        <f t="array" ref="AC2:AC9">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,S2:AA156)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
         <v>3.1 - Material delivery</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3.2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" t="str">
-        <f t="shared" ref="S3:S12" si="8">A3&amp;" - "&amp;B3</f>
-        <v>3.2 - Certification of welding equipment</v>
-      </c>
-      <c r="T3" t="str">
-        <f t="shared" ref="T3:T12" si="9">"Inspection Point: Quality Control Activity - "&amp;C3</f>
-        <v>Inspection Point: Quality Control Activity - Confirming just one EF welding machine in use during life of project.</v>
-      </c>
-      <c r="U3" t="str">
-        <f t="shared" ref="U3:U12" si="10">"Acceptance Criteria - "&amp;D3</f>
-        <v>Acceptance Criteria - Accepted by Client as suitable for use</v>
-      </c>
-      <c r="V3" t="str">
-        <f t="shared" ref="V3:V12" si="11">"Verifying Document - "&amp;E3</f>
-        <v>Verifying Document - Current calibration certificate/service record</v>
-      </c>
-      <c r="W3" t="str">
-        <f t="shared" ref="W3:W12" si="12">"Frequency - "&amp;F3</f>
-        <v>Frequency - Prior to commencement of works</v>
-      </c>
-      <c r="X3" t="str">
-        <f t="shared" ref="X3:X12" si="13">"Inspection Type (Visual, other) - "&amp;G3</f>
-        <v>Inspection Type (Visual, other) - Hold point</v>
-      </c>
-      <c r="Y3" t="str">
-        <f t="shared" ref="Y3:Y12" si="14">"Inspection: Key - "&amp;H3</f>
-        <v>Inspection: Key - H</v>
-      </c>
-      <c r="Z3" t="str">
-        <f t="shared" ref="Z3:Z12" si="15">"Inspection: By - "&amp;I3</f>
-        <v>Inspection: By - IP</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
       <c r="AC3" t="str">
         <v>Inspection Point: Quality Control Activity - - each pipe welding location check pipes to be welded
 - each EF fitting
@@ -777,136 +604,24 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="S4" t="str">
-        <f t="shared" si="8"/>
-        <v>4.1 - PE Welding – Operator and Equipment</v>
-      </c>
-      <c r="T4" t="str">
-        <f t="shared" si="9"/>
-        <v>Inspection Point: Quality Control Activity - - Competency certificate of welder and certificate of fitness for welding equipment _x000D_
-- Generator capacity adequate for the EF fittings.</v>
-      </c>
-      <c r="U4" t="str">
-        <f t="shared" si="10"/>
-        <v>Acceptance Criteria - Have peel decohesion test of weld samples carried out by an IANZ accredited laboratory.</v>
-      </c>
-      <c r="V4" t="str">
-        <f t="shared" si="11"/>
-        <v>Verifying Document - - Current welding certificates of operatives_x000D_
-- Current calibration record of welding Equipment_x000D_
-- Peel decohesion test results</v>
-      </c>
-      <c r="W4" t="str">
-        <f t="shared" si="12"/>
-        <v>Frequency - During Installation</v>
-      </c>
-      <c r="X4" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">Inspection Type (Visual, other) - Inspection, Examine_x000D_
-</v>
-      </c>
-      <c r="Y4" t="str">
-        <f t="shared" si="14"/>
-        <v>Inspection: Key - I, E</v>
-      </c>
-      <c r="Z4" t="str">
-        <f t="shared" si="15"/>
-        <v>Inspection: By - CR, IP</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
       <c r="AC4" t="str">
         <v>Acceptance Criteria - - Pipes shall be DN180 PE100 PN16
 - EF fittings correct size, SDR, PE100 and pressure rating.</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" t="str">
-        <f t="shared" si="8"/>
-        <v>4.2 - Test Sampling</v>
-      </c>
-      <c r="T5" t="str">
-        <f t="shared" si="9"/>
-        <v>Inspection Point: Quality Control Activity - one pre-qualification per operator, one pilot weld per machine/per DN.</v>
-      </c>
-      <c r="U5" t="str">
-        <f t="shared" si="10"/>
-        <v>Acceptance Criteria - - Pass/Fail_x000D_
-- ISO 13953 (Testing)</v>
-      </c>
-      <c r="V5" t="str">
-        <f t="shared" si="11"/>
-        <v>Verifying Document - Peel decohesion  test results from Kiwi Mechanical Ltd</v>
-      </c>
-      <c r="W5" t="str">
-        <f t="shared" si="12"/>
-        <v>Frequency - - Every 20 welds per operator (or as requested by Client). _x000D_
-- Test frequency to be reduced in response to consistent pass results, with Engineers approval.</v>
-      </c>
-      <c r="X5" t="str">
-        <f t="shared" si="13"/>
-        <v>Inspection Type (Visual, other) - Operation, Review</v>
-      </c>
-      <c r="Y5" t="str">
-        <f t="shared" si="14"/>
-        <v>Inspection: Key - O, R</v>
-      </c>
-      <c r="Z5" t="str">
-        <f t="shared" si="15"/>
-        <v>Inspection: By - WS/CR, IP</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
       <c r="AC5" t="str">
         <v>Verifying Document - - Photo of markings and labels on pipe.
 - Delivery docket/ packing slip
@@ -914,134 +629,20 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4.3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" t="str">
-        <f t="shared" si="8"/>
-        <v>4.3 - Weld Completion</v>
-      </c>
-      <c r="T6" t="str">
-        <f t="shared" si="9"/>
-        <v>Inspection Point: Quality Control Activity - - Weld completed to required standard and specification._x000D_
-- Only move strings after EF’s have cooled!</v>
-      </c>
-      <c r="U6" t="str">
-        <f t="shared" si="10"/>
-        <v>Acceptance Criteria - - Pass/Fail_x000D_
-- PIPA POP001 version 8.1 2021 and POP014 _x000D_
-- EF controller printout for all EF joints</v>
-      </c>
-      <c r="V6" t="str">
-        <f t="shared" si="11"/>
-        <v>Verifying Document - - Power App or manual records_x000D_
-- Data log from welding equipment_x000D_
-- Photo Log</v>
-      </c>
-      <c r="W6" t="str">
-        <f t="shared" si="12"/>
-        <v>Frequency - Each weld</v>
-      </c>
-      <c r="X6" t="str">
-        <f t="shared" si="13"/>
-        <v>Inspection Type (Visual, other) - Check, Dimension Inspection</v>
-      </c>
-      <c r="Y6" t="str">
-        <f t="shared" si="14"/>
-        <v>Inspection: Key - C, D, R</v>
-      </c>
-      <c r="Z6" t="str">
-        <f t="shared" si="15"/>
-        <v>Inspection: By - WS/CR, IP</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="AC6" t="str">
         <v>Frequency - On delivery</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-      <c r="S7" t="str">
-        <f t="shared" si="8"/>
-        <v>5.1 - Completion of QA</v>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="9"/>
-        <v>Inspection Point: Quality Control Activity - Ensure QA package complete.</v>
-      </c>
-      <c r="U7" t="str">
-        <f t="shared" si="10"/>
-        <v>Acceptance Criteria - - all necessary documents including HDPE welding compiled and handed over to ER in completeness.</v>
-      </c>
-      <c r="V7" t="str">
-        <f t="shared" si="11"/>
-        <v>Verifying Document - - Excel spreadsheet exported from Power App, includes weld photos and weld date from weld equipment.</v>
-      </c>
-      <c r="W7" t="str">
-        <f t="shared" si="12"/>
-        <v>Frequency - Before practical completion</v>
-      </c>
-      <c r="X7" t="str">
-        <f t="shared" si="13"/>
-        <v>Inspection Type (Visual, other) - Inspection, Monitor on Random Basis</v>
-      </c>
-      <c r="Y7" t="str">
-        <f t="shared" si="14"/>
-        <v>Inspection: Key - I, M</v>
-      </c>
-      <c r="Z7" t="str">
-        <f t="shared" si="15"/>
-        <v>Inspection: By - CR, IP</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="AC7" t="str">
         <v>Inspection Type (Visual, other) - Visual</v>
       </c>
@@ -1072,9 +673,6 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="AC10" t="str">
-        <v>3.2 - Certification of welding equipment</v>
-      </c>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
@@ -1082,282 +680,135 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="AC11" t="str">
-        <v>Inspection Point: Quality Control Activity - Confirming just one EF welding machine in use during life of project.</v>
-      </c>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="AC12" t="str">
-        <v>Acceptance Criteria - Accepted by Client as suitable for use</v>
-      </c>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="AC13" t="str">
-        <v>Verifying Document - Current calibration certificate/service record</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AC14" t="str">
-        <v>Frequency - Prior to commencement of works</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AC15" t="str">
-        <v>Inspection Type (Visual, other) - Hold point</v>
-      </c>
     </row>
     <row r="16" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
-      <c r="AC16" t="str">
-        <v>Inspection: Key - H</v>
-      </c>
-    </row>
-    <row r="17" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AC17" t="str">
-        <v>Inspection: By - IP</v>
-      </c>
-    </row>
-    <row r="18" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" s="1"/>
-      <c r="AC18" t="str">
-        <v>4.1 - PE Welding – Operator and Equipment</v>
-      </c>
-    </row>
-    <row r="19" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="AC19" t="str">
-        <v>Inspection Point: Quality Control Activity - - Competency certificate of welder and certificate of fitness for welding equipment 
-- Generator capacity adequate for the EF fittings.</v>
-      </c>
-    </row>
-    <row r="20" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
-      <c r="AC20" t="str">
-        <v>Acceptance Criteria - Have peel decohesion test of weld samples carried out by an IANZ accredited laboratory.</v>
-      </c>
-    </row>
-    <row r="21" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="AC21" t="str">
-        <v>Verifying Document - - Current welding certificates of operatives
-- Current calibration record of welding Equipment
-- Peel decohesion test results</v>
-      </c>
-    </row>
-    <row r="22" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="AC22" t="str">
-        <v>Frequency - During Installation</v>
-      </c>
-    </row>
-    <row r="23" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
-      <c r="AC23" t="str">
-        <v>Inspection Type (Visual, other) - Inspection, Examine</v>
-      </c>
-    </row>
-    <row r="24" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="AC24" t="str">
-        <v>Inspection: Key - I, E</v>
-      </c>
-    </row>
-    <row r="25" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="AC25" t="str">
-        <v>Inspection: By - CR, IP</v>
-      </c>
-    </row>
-    <row r="26" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AC26" t="str">
-        <v>4.2 - Test Sampling</v>
-      </c>
-    </row>
-    <row r="27" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AC27" t="str">
-        <v>Inspection Point: Quality Control Activity - one pre-qualification per operator, one pilot weld per machine/per DN.</v>
-      </c>
-    </row>
-    <row r="28" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
-      <c r="AC28" t="str">
-        <v>Acceptance Criteria - - Pass/Fail
-- ISO 13953 (Testing)</v>
-      </c>
-    </row>
-    <row r="29" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AC29" t="str">
-        <v>Verifying Document - Peel decohesion  test results from Kiwi Mechanical Ltd</v>
-      </c>
-    </row>
-    <row r="30" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AC30" t="str">
-        <v>Frequency - - Every 20 welds per operator (or as requested by Client). 
-- Test frequency to be reduced in response to consistent pass results, with Engineers approval.</v>
-      </c>
-    </row>
-    <row r="31" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="AC31" t="str">
-        <v>Inspection Type (Visual, other) - Operation, Review</v>
-      </c>
-    </row>
-    <row r="32" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="1"/>
-      <c r="AC32" t="str">
-        <v>Inspection: Key - O, R</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AC33" t="str">
-        <v>Inspection: By - WS/CR, IP</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
-      <c r="AC34" t="str">
-        <v>4.3 - Weld Completion</v>
-      </c>
-    </row>
-    <row r="35" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
-      <c r="AC35" t="str">
-        <v>Inspection Point: Quality Control Activity - - Weld completed to required standard and specification.
-- Only move strings after EF’s have cooled!</v>
-      </c>
-    </row>
-    <row r="36" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
-      <c r="AC36" t="str">
-        <v>Acceptance Criteria - - Pass/Fail
-- PIPA POP001 version 8.1 2021 and POP014 
-- EF controller printout for all EF joints</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
-      <c r="AC37" t="str">
-        <v>Verifying Document - - Power App or manual records
-- Data log from welding equipment
-- Photo Log</v>
-      </c>
-    </row>
-    <row r="38" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="AC38" t="str">
-        <v>Frequency - Each weld</v>
-      </c>
-    </row>
-    <row r="39" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
-      <c r="AC39" t="str">
-        <v>Inspection Type (Visual, other) - Check, Dimension Inspection</v>
-      </c>
-    </row>
-    <row r="40" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="AC40" t="str">
-        <v>Inspection: Key - C, D, R</v>
-      </c>
-    </row>
-    <row r="41" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
-      <c r="AC41" t="str">
-        <v>Inspection: By - WS/CR, IP</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
-      <c r="AC42" t="str">
-        <v>5.1 - Completion of QA</v>
-      </c>
-    </row>
-    <row r="43" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
-      <c r="AC43" t="str">
-        <v>Inspection Point: Quality Control Activity - Ensure QA package complete.</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
-      <c r="AC44" t="str">
-        <v>Acceptance Criteria - - all necessary documents including HDPE welding compiled and handed over to ER in completeness.</v>
-      </c>
-    </row>
-    <row r="45" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
-      <c r="AC45" t="str">
-        <v>Verifying Document - - Excel spreadsheet exported from Power App, includes weld photos and weld date from weld equipment.</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
-      <c r="AC46" t="str">
-        <v>Frequency - Before practical completion</v>
-      </c>
-    </row>
-    <row r="47" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AC47" t="str">
-        <v>Inspection Type (Visual, other) - Inspection, Monitor on Random Basis</v>
-      </c>
-    </row>
-    <row r="48" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AC48" t="str">
-        <v>Inspection: Key - I, M</v>
-      </c>
-    </row>
-    <row r="49" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
-      <c r="AC49" t="str">
-        <v>Inspection: By - CR, IP</v>
-      </c>
-    </row>
-    <row r="53" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G55" s="1"/>
     </row>
-    <row r="57" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
     </row>
-    <row r="59" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="D64" s="1"/>
     </row>

--- a/_CONCAT_DOWNER_Utilities.xlsx
+++ b/_CONCAT_DOWNER_Utilities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DA166B-1BCC-4BD0-A536-C9FC486C20CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68EE787-B757-4D36-8EBF-31821ABFECC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="975" windowWidth="26730" windowHeight="18345" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28905" windowHeight="20010" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
   <si>
     <t>Visual</t>
   </si>
@@ -69,27 +69,334 @@
     <t>V</t>
   </si>
   <si>
-    <t xml:space="preserve">On delivery </t>
-  </si>
-  <si>
-    <t>Material delivery</t>
-  </si>
-  <si>
-    <t>CR, IP</t>
-  </si>
-  <si>
-    <t>- each pipe welding location check pipes to be welded_x000D_
-- each EF fitting_x000D_
-- check bags undamaged and sealed</t>
-  </si>
-  <si>
-    <t>- Pipes shall be DN180 PE100 PN16_x000D_
-- EF fittings correct size, SDR, PE100 and pressure rating.</t>
-  </si>
-  <si>
-    <t>- Photo of markings and labels on pipe._x000D_
-- Delivery docket/ packing slip_x000D_
-- Scan bar code on fitting</t>
+    <t xml:space="preserve">On Delivery </t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SP_x000D_
+QE</t>
+  </si>
+  <si>
+    <t>Set out completed by an approved surveyor marked allignment</t>
+  </si>
+  <si>
+    <t>Survey marks, photos</t>
+  </si>
+  <si>
+    <t>Prior to commencement of works</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Trench Excavation</t>
+  </si>
+  <si>
+    <t>Photos, measurement checks</t>
+  </si>
+  <si>
+    <t>During Installation</t>
+  </si>
+  <si>
+    <t>Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visual, On site test_x000D_
+</t>
+  </si>
+  <si>
+    <t>During installation</t>
+  </si>
+  <si>
+    <t>Photos</t>
+  </si>
+  <si>
+    <t>Backfill and Compact</t>
+  </si>
+  <si>
+    <t>Photos, Compaction test results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visual, On Site test_x000D_
+</t>
+  </si>
+  <si>
+    <t>Materials compaction</t>
+  </si>
+  <si>
+    <t>Compacted layer is 200mm</t>
+  </si>
+  <si>
+    <t>Photos, visual, measurement</t>
+  </si>
+  <si>
+    <t>16No passes (8no x 2)</t>
+  </si>
+  <si>
+    <t>Visual, Photograph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP_x000D_
+QE_x000D_
+ER_x000D_
+</t>
+  </si>
+  <si>
+    <t>Red pen markups</t>
+  </si>
+  <si>
+    <t>Installation complete</t>
+  </si>
+  <si>
+    <t>Original Drawings CHAR(AMP) Documentation</t>
+  </si>
+  <si>
+    <t>As-Built Survey</t>
+  </si>
+  <si>
+    <t>At project completion</t>
+  </si>
+  <si>
+    <t>Engineer approval</t>
+  </si>
+  <si>
+    <t>As-Built Drawings</t>
+  </si>
+  <si>
+    <t>Completion of Project</t>
+  </si>
+  <si>
+    <t>Submission of Documentation</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>Material Delivery</t>
+  </si>
+  <si>
+    <t>Inspect for damage and wear, Confirm items are correct as per drawings and Specifications</t>
+  </si>
+  <si>
+    <t>-Pipes shall be DN600 Class 2 RCRRJ_x000D_
+- Items are approved as per contract specification_x000D_
+- DCC approved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photos, delivery docket, MDD results CHAR(AMP) Materials grading for backfill materials </t>
+  </si>
+  <si>
+    <t>QE</t>
+  </si>
+  <si>
+    <t>Set out</t>
+  </si>
+  <si>
+    <t>Allignment set out matches drawings or aggreed by the Engineer</t>
+  </si>
+  <si>
+    <t>Visual, Instrumental</t>
+  </si>
+  <si>
+    <t>SV_x000D_
+SP_x000D_
+QE_x000D_
+PM_x000D_
+ER</t>
+  </si>
+  <si>
+    <t>Embedment Zone Materials - AP20</t>
+  </si>
+  <si>
+    <t>Visual quality check AP20 is evenly graded granular material free of detritus</t>
+  </si>
+  <si>
+    <t>Material Approval by Quality Engineer</t>
+  </si>
+  <si>
+    <t>Photograph</t>
+  </si>
+  <si>
+    <t>Review CHAR(AMP) Approval</t>
+  </si>
+  <si>
+    <t>Backfill Material - AP65</t>
+  </si>
+  <si>
+    <t>Submission of Test Sheets for review</t>
+  </si>
+  <si>
+    <t>Material Approval by Engineer Rep</t>
+  </si>
+  <si>
+    <t>Test Certification</t>
+  </si>
+  <si>
+    <t>Once</t>
+  </si>
+  <si>
+    <t>QE_x000D_
+ER</t>
+  </si>
+  <si>
+    <t>Pavement Preparation Material - M440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Excavate to achieve required depth to invert as per C111 to C113_x000D_
+- Trench width to allow for sufficient clearance to accomodate trench shield and effective compaction between springline of the pipe and trench wall or an adjacent pipe_x000D_
+- Floor of trench to be even across width and length </t>
+  </si>
+  <si>
+    <t>- Allow 150mm for bedding _x000D_
+-  Allow for cover as per long section drawing (minimum cover of 750mm).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP_x000D_
+QE_x000D_
+CM_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scala tests on base of trench </t>
+  </si>
+  <si>
+    <t>Minimum of 3 blows per 100mm to achieve a CBR 5 or 100kPa Ground Bearing Pressure</t>
+  </si>
+  <si>
+    <t>Test results</t>
+  </si>
+  <si>
+    <t>During installation, per 20m</t>
+  </si>
+  <si>
+    <t>40 Clean drain detail</t>
+  </si>
+  <si>
+    <t>Install undercut detail if soft ground conditions or groundwater is encountered.</t>
+  </si>
+  <si>
+    <t>- 200mm depth Clean 40 wrapped in Bidim A29 geotextile</t>
+  </si>
+  <si>
+    <t>C CHAR(AMP) I</t>
+  </si>
+  <si>
+    <t>Install Pipe</t>
+  </si>
+  <si>
+    <t>Pipe installed to grade as per drawing C111-C113 and referencing Project Specification - Appendix D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Pipe not damaged during installation_x000D_
+- Pipe installed to grade within tolerances specification GP 3.1.8_x000D_
+</t>
+  </si>
+  <si>
+    <t>Photos, Grade check sheet, Survey of position for asbuilt</t>
+  </si>
+  <si>
+    <t>Visual, instrumental</t>
+  </si>
+  <si>
+    <t>Embedment zone</t>
+  </si>
+  <si>
+    <t>Embedment material shall be AP20 as approved by the Engineer (Refer section 3.3 of this ITP)</t>
+  </si>
+  <si>
+    <t>- Min 150mm bedding_x000D_
+- 150mm overlay</t>
+  </si>
+  <si>
+    <t>Photos_x000D_
+Site Check Measurements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visual, measurement check_x000D_
+</t>
+  </si>
+  <si>
+    <t>Backfill AP65 in 200mm (Materials to be  layers of compacted material as approved bt the Engineer (Refer Section 3.4 of this ITP)_x000D_
+- Compaction testing one test every two layers as required</t>
+  </si>
+  <si>
+    <t>95% MDD in roads, paths, and pavements</t>
+  </si>
+  <si>
+    <t>During Installation, compaction testing per 50m of pipeline or per straight section of pipeline at each alternate layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each Layer (200mm) compaction using plate compactor 8No back and forward passes </t>
+  </si>
+  <si>
+    <t>Pavement reinstatement and surfacing</t>
+  </si>
+  <si>
+    <t>Place and compact M440 as approved by the Engineer (Refer Section 3.5 of this ITP) basecourse in preparation for 50mm asphalt</t>
+  </si>
+  <si>
+    <t>- Average 98% MDD in roads with no test lower than 95%._x000D_
+- Over cut trench 100mm from trench wall_x000D_
+- Prep 50mm below staright edge</t>
+  </si>
+  <si>
+    <t>During Installation, compaction testing per 50m of pipeline or per straight section of pipeline</t>
+  </si>
+  <si>
+    <t>CCTV</t>
+  </si>
+  <si>
+    <t>CCTV inspection to confirm pipeline conforms with specification</t>
+  </si>
+  <si>
+    <t>Pipeline will fail is any of the following is visible:_x000D_
+- pipe misalignment or deformation more than 5% of the pipe diameter_x000D_
+- defects such as open joints, potruding laterals, cracked barrels, or similar</t>
+  </si>
+  <si>
+    <t>Test Records, CCTV footage</t>
+  </si>
+  <si>
+    <t>Every section of pipe completed</t>
+  </si>
+  <si>
+    <t>On-Site Test</t>
+  </si>
+  <si>
+    <t>SP_x000D_
+QE_x000D_
+CM_x000D_
+ER</t>
+  </si>
+  <si>
+    <t>Leak Testing</t>
+  </si>
+  <si>
+    <t>Tested in the presence of the Engineer or their representative_x000D_
+testing in accordance with AS/NZS 2566.2 Section 6.4</t>
+  </si>
+  <si>
+    <t>Engineer Approval</t>
+  </si>
+  <si>
+    <t>Test Records</t>
+  </si>
+  <si>
+    <t>Every section of pipe installed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete mark up of any changes from supplied drawings </t>
+  </si>
+  <si>
+    <t>After completion of pipe section</t>
+  </si>
+  <si>
+    <t>Measure CHAR(AMP) Record</t>
   </si>
 </sst>
 </file>
@@ -460,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9569D8B-2D3C-4734-8A88-E4228D8D8D71}">
   <dimension ref="A1:AC155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -525,16 +832,16 @@
         <v>3.1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -543,35 +850,32 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="S2" t="str">
         <f t="shared" ref="S2" si="0">A2&amp;" - "&amp;B2</f>
-        <v>3.1 - Material delivery</v>
+        <v>3.1 - Material Delivery</v>
       </c>
       <c r="T2" t="str">
         <f t="shared" ref="T2" si="1">"Inspection Point: Quality Control Activity - "&amp;C2</f>
-        <v>Inspection Point: Quality Control Activity - - each pipe welding location check pipes to be welded_x000D_
-- each EF fitting_x000D_
-- check bags undamaged and sealed</v>
+        <v>Inspection Point: Quality Control Activity - Inspect for damage and wear, Confirm items are correct as per drawings and Specifications</v>
       </c>
       <c r="U2" t="str">
         <f t="shared" ref="U2" si="2">"Acceptance Criteria - "&amp;D2</f>
-        <v>Acceptance Criteria - - Pipes shall be DN180 PE100 PN16_x000D_
-- EF fittings correct size, SDR, PE100 and pressure rating.</v>
+        <v>Acceptance Criteria - -Pipes shall be DN600 Class 2 RCRRJ_x000D_
+- Items are approved as per contract specification_x000D_
+- DCC approved</v>
       </c>
       <c r="V2" t="str">
         <f t="shared" ref="V2" si="3">"Verifying Document - "&amp;E2</f>
-        <v>Verifying Document - - Photo of markings and labels on pipe._x000D_
-- Delivery docket/ packing slip_x000D_
-- Scan bar code on fitting</v>
+        <v xml:space="preserve">Verifying Document - Photos, delivery docket, MDD results CHAR(AMP) Materials grading for backfill materials </v>
       </c>
       <c r="W2" t="str">
         <f t="shared" ref="W2" si="4">"Frequency - "&amp;F2</f>
-        <v xml:space="preserve">Frequency - On delivery </v>
+        <v xml:space="preserve">Frequency - On Delivery </v>
       </c>
       <c r="X2" t="str">
         <f t="shared" ref="X2" si="5">"Inspection Type (Visual, other) - "&amp;G2</f>
@@ -579,283 +883,1797 @@
       </c>
       <c r="Y2" t="str">
         <f t="shared" ref="Y2" si="6">"Inspection: Key - "&amp;H2</f>
-        <v>Inspection: Key - V</v>
+        <v>Inspection: Key - C</v>
       </c>
       <c r="Z2" t="str">
         <f t="shared" ref="Z2" si="7">"Inspection: By - "&amp;I2</f>
-        <v>Inspection: By - CR, IP</v>
+        <v>Inspection: By - QE</v>
       </c>
       <c r="AC2" t="str" cm="1">
-        <f t="array" ref="AC2:AC9">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,S2:AA156)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
-        <v>3.1 - Material delivery</v>
+        <f t="array" ref="AC2:AC137">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,S2:AA156)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
+        <v>3.1 - Material Delivery</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="A3">
+        <v>3.2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" ref="S3:S15" si="8">A3&amp;" - "&amp;B3</f>
+        <v>3.2 - Set out</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" ref="T3:T15" si="9">"Inspection Point: Quality Control Activity - "&amp;C3</f>
+        <v>Inspection Point: Quality Control Activity - Set out completed by an approved surveyor marked allignment</v>
+      </c>
+      <c r="U3" t="str">
+        <f t="shared" ref="U3:U15" si="10">"Acceptance Criteria - "&amp;D3</f>
+        <v>Acceptance Criteria - Allignment set out matches drawings or aggreed by the Engineer</v>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" ref="V3:V15" si="11">"Verifying Document - "&amp;E3</f>
+        <v>Verifying Document - Survey marks, photos</v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" ref="W3:W15" si="12">"Frequency - "&amp;F3</f>
+        <v>Frequency - Prior to commencement of works</v>
+      </c>
+      <c r="X3" t="str">
+        <f t="shared" ref="X3:X15" si="13">"Inspection Type (Visual, other) - "&amp;G3</f>
+        <v>Inspection Type (Visual, other) - Visual, Instrumental</v>
+      </c>
+      <c r="Y3" t="str">
+        <f t="shared" ref="Y3:Y15" si="14">"Inspection: Key - "&amp;H3</f>
+        <v>Inspection: Key - H</v>
+      </c>
+      <c r="Z3" t="str">
+        <f t="shared" ref="Z3:Z15" si="15">"Inspection: By - "&amp;I3</f>
+        <v>Inspection: By - SV_x000D_
+SP_x000D_
+QE_x000D_
+PM_x000D_
+ER</v>
+      </c>
       <c r="AC3" t="str">
-        <v>Inspection Point: Quality Control Activity - - each pipe welding location check pipes to be welded
-- each EF fitting
-- check bags undamaged and sealed</v>
+        <v>Inspection Point: Quality Control Activity - Inspect for damage and wear, Confirm items are correct as per drawings and Specifications</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="A4">
+        <v>3.3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" ref="S4:S18" si="16">A4&amp;" - "&amp;B4</f>
+        <v>3.3 - Embedment Zone Materials - AP20</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" ref="T4:T18" si="17">"Inspection Point: Quality Control Activity - "&amp;C4</f>
+        <v>Inspection Point: Quality Control Activity - Visual quality check AP20 is evenly graded granular material free of detritus</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" ref="U4:U18" si="18">"Acceptance Criteria - "&amp;D4</f>
+        <v>Acceptance Criteria - Material Approval by Quality Engineer</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" ref="V4:V18" si="19">"Verifying Document - "&amp;E4</f>
+        <v>Verifying Document - Photograph</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" ref="W4:W18" si="20">"Frequency - "&amp;F4</f>
+        <v xml:space="preserve">Frequency - On Delivery </v>
+      </c>
+      <c r="X4" t="str">
+        <f t="shared" ref="X4:X18" si="21">"Inspection Type (Visual, other) - "&amp;G4</f>
+        <v>Inspection Type (Visual, other) - Review CHAR(AMP) Approval</v>
+      </c>
+      <c r="Y4" t="str">
+        <f t="shared" ref="Y4:Y18" si="22">"Inspection: Key - "&amp;H4</f>
+        <v>Inspection: Key - R</v>
+      </c>
+      <c r="Z4" t="str">
+        <f t="shared" ref="Z4:Z18" si="23">"Inspection: By - "&amp;I4</f>
+        <v>Inspection: By - QE</v>
+      </c>
       <c r="AC4" t="str">
-        <v>Acceptance Criteria - - Pipes shall be DN180 PE100 PN16
-- EF fittings correct size, SDR, PE100 and pressure rating.</v>
+        <v>Acceptance Criteria - -Pipes shall be DN600 Class 2 RCRRJ
+- Items are approved as per contract specification
+- DCC approved</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="16"/>
+        <v>3.4 - Backfill Material - AP65</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="17"/>
+        <v>Inspection Point: Quality Control Activity - Submission of Test Sheets for review</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="18"/>
+        <v>Acceptance Criteria - Material Approval by Engineer Rep</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="19"/>
+        <v>Verifying Document - Test Certification</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="20"/>
+        <v>Frequency - Once</v>
+      </c>
+      <c r="X5" t="str">
+        <f t="shared" si="21"/>
+        <v>Inspection Type (Visual, other) - Review CHAR(AMP) Approval</v>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" si="22"/>
+        <v>Inspection: Key - R</v>
+      </c>
+      <c r="Z5" t="str">
+        <f t="shared" si="23"/>
+        <v>Inspection: By - QE_x000D_
+ER</v>
+      </c>
       <c r="AC5" t="str">
-        <v>Verifying Document - - Photo of markings and labels on pipe.
-- Delivery docket/ packing slip
-- Scan bar code on fitting</v>
+        <v>Verifying Document - Photos, delivery docket, MDD results CHAR(AMP) Materials grading for backfill materials</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6">
+        <v>3.5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="16"/>
+        <v>3.5 - Pavement Preparation Material - M440</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="17"/>
+        <v>Inspection Point: Quality Control Activity - Submission of Test Sheets for review</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="18"/>
+        <v>Acceptance Criteria - Material Approval by Engineer Rep</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="19"/>
+        <v>Verifying Document - Test Certification</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="20"/>
+        <v>Frequency - Once</v>
+      </c>
+      <c r="X6" t="str">
+        <f t="shared" si="21"/>
+        <v>Inspection Type (Visual, other) - Review CHAR(AMP) Approval</v>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" si="22"/>
+        <v>Inspection: Key - R</v>
+      </c>
+      <c r="Z6" t="str">
+        <f t="shared" si="23"/>
+        <v>Inspection: By - QE_x000D_
+ER</v>
+      </c>
       <c r="AC6" t="str">
-        <v>Frequency - On delivery</v>
+        <v>Frequency - On Delivery</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="A7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="16"/>
+        <v>4.1 - Trench Excavation</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">Inspection Point: Quality Control Activity - - Excavate to achieve required depth to invert as per C111 to C113_x000D_
+- Trench width to allow for sufficient clearance to accomodate trench shield and effective compaction between springline of the pipe and trench wall or an adjacent pipe_x000D_
+- Floor of trench to be even across width and length </v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="18"/>
+        <v>Acceptance Criteria - - Allow 150mm for bedding _x000D_
+-  Allow for cover as per long section drawing (minimum cover of 750mm).</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="19"/>
+        <v>Verifying Document - Photos, measurement checks</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="20"/>
+        <v>Frequency - During Installation</v>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" si="21"/>
+        <v>Inspection Type (Visual, other) - Visual</v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="22"/>
+        <v>Inspection: Key - C</v>
+      </c>
+      <c r="Z7" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">Inspection: By - SP_x000D_
+QE_x000D_
+CM_x000D_
+</v>
+      </c>
       <c r="AC7" t="str">
         <v>Inspection Type (Visual, other) - Visual</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="A8">
+        <v>4.3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="16"/>
+        <v>4.3 - Foundation</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">Inspection Point: Quality Control Activity - Scala tests on base of trench </v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="18"/>
+        <v>Acceptance Criteria - Minimum of 3 blows per 100mm to achieve a CBR 5 or 100kPa Ground Bearing Pressure</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="19"/>
+        <v>Verifying Document - Test results</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="20"/>
+        <v>Frequency - During installation, per 20m</v>
+      </c>
+      <c r="X8" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">Inspection Type (Visual, other) - Visual, On site test_x000D_
+</v>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" si="22"/>
+        <v>Inspection: Key - H</v>
+      </c>
+      <c r="Z8" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">Inspection: By - SP_x000D_
+QE_x000D_
+ER_x000D_
+</v>
+      </c>
       <c r="AC8" t="str">
+        <v>Inspection: Key - C</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4.2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="16"/>
+        <v>4.2 - 40 Clean drain detail</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="17"/>
+        <v>Inspection Point: Quality Control Activity - Install undercut detail if soft ground conditions or groundwater is encountered.</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="18"/>
+        <v>Acceptance Criteria - - 200mm depth Clean 40 wrapped in Bidim A29 geotextile</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="19"/>
+        <v>Verifying Document - Photos</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="20"/>
+        <v>Frequency - During Installation</v>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="21"/>
+        <v>Inspection Type (Visual, other) - Visual</v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="22"/>
+        <v>Inspection: Key - C CHAR(AMP) I</v>
+      </c>
+      <c r="Z9" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">Inspection: By - SP_x000D_
+QE_x000D_
+ER_x000D_
+</v>
+      </c>
+      <c r="AC9" t="str">
+        <v>Inspection: By - QE</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="16"/>
+        <v>4.4 - Install Pipe</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="17"/>
+        <v>Inspection Point: Quality Control Activity - Pipe installed to grade as per drawing C111-C113 and referencing Project Specification - Appendix D2</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">Acceptance Criteria - - Pipe not damaged during installation_x000D_
+- Pipe installed to grade within tolerances specification GP 3.1.8_x000D_
+</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="19"/>
+        <v>Verifying Document - Photos, Grade check sheet, Survey of position for asbuilt</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="20"/>
+        <v>Frequency - During installation</v>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" si="21"/>
+        <v>Inspection Type (Visual, other) - Visual, instrumental</v>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="22"/>
+        <v>Inspection: Key - C CHAR(AMP) I</v>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">Inspection: By - SP_x000D_
+QE_x000D_
+ER_x000D_
+</v>
+      </c>
+      <c r="AC10" t="str">
+        <v>3.2 - Set out</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="16"/>
+        <v>4.5 - Embedment zone</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="17"/>
+        <v>Inspection Point: Quality Control Activity - Embedment material shall be AP20 as approved by the Engineer (Refer section 3.3 of this ITP)</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="18"/>
+        <v>Acceptance Criteria - - Min 150mm bedding_x000D_
+- 150mm overlay</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="19"/>
+        <v>Verifying Document - Photos_x000D_
+Site Check Measurements</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="20"/>
+        <v>Frequency - During Installation</v>
+      </c>
+      <c r="X11" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">Inspection Type (Visual, other) - Visual, measurement check_x000D_
+</v>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="22"/>
+        <v>Inspection: Key - C</v>
+      </c>
+      <c r="Z11" t="str">
+        <f t="shared" si="23"/>
+        <v>Inspection: By - SP_x000D_
+QE</v>
+      </c>
+      <c r="AC11" t="str">
+        <v>Inspection Point: Quality Control Activity - Set out completed by an approved surveyor marked allignment</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="16"/>
+        <v>4.6 - Backfill and Compact</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="17"/>
+        <v>Inspection Point: Quality Control Activity - Backfill AP65 in 200mm (Materials to be  layers of compacted material as approved bt the Engineer (Refer Section 3.4 of this ITP)_x000D_
+- Compaction testing one test every two layers as required</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="18"/>
+        <v>Acceptance Criteria - 95% MDD in roads, paths, and pavements</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="19"/>
+        <v>Verifying Document - Photos, Compaction test results</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="20"/>
+        <v>Frequency - During Installation, compaction testing per 50m of pipeline or per straight section of pipeline at each alternate layer</v>
+      </c>
+      <c r="X12" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">Inspection Type (Visual, other) - Visual, On Site test_x000D_
+</v>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="22"/>
+        <v>Inspection: Key - H</v>
+      </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">Inspection: By - SP_x000D_
+QE_x000D_
+ER_x000D_
+</v>
+      </c>
+      <c r="AC12" t="str">
+        <v>Acceptance Criteria - Allignment set out matches drawings or aggreed by the Engineer</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4.7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="16"/>
+        <v>4.7 - Materials compaction</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">Inspection Point: Quality Control Activity - Each Layer (200mm) compaction using plate compactor 8No back and forward passes </v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="18"/>
+        <v>Acceptance Criteria - Compacted layer is 200mm</v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="19"/>
+        <v>Verifying Document - Photos, visual, measurement</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="20"/>
+        <v>Frequency - 16No passes (8no x 2)</v>
+      </c>
+      <c r="X13" t="str">
+        <f t="shared" si="21"/>
+        <v>Inspection Type (Visual, other) - Visual, Photograph</v>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="22"/>
         <v>Inspection: Key - V</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="AC9" t="str">
-        <v>Inspection: By - CR, IP</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="Z13" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">Inspection: By - SP_x000D_
+QE_x000D_
+ER_x000D_
+</v>
+      </c>
+      <c r="AC13" t="str">
+        <v>Verifying Document - Survey marks, photos</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4.8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="16"/>
+        <v>4.8 - Pavement reinstatement and surfacing</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="17"/>
+        <v>Inspection Point: Quality Control Activity - Place and compact M440 as approved by the Engineer (Refer Section 3.5 of this ITP) basecourse in preparation for 50mm asphalt</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="18"/>
+        <v>Acceptance Criteria - - Average 98% MDD in roads with no test lower than 95%._x000D_
+- Over cut trench 100mm from trench wall_x000D_
+- Prep 50mm below staright edge</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="19"/>
+        <v>Verifying Document - Photos, Compaction test results</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="20"/>
+        <v>Frequency - During Installation, compaction testing per 50m of pipeline or per straight section of pipeline</v>
+      </c>
+      <c r="X14" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">Inspection Type (Visual, other) - Visual, On Site test_x000D_
+</v>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="22"/>
+        <v>Inspection: Key - H</v>
+      </c>
+      <c r="Z14" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">Inspection: By - SP_x000D_
+QE_x000D_
+ER_x000D_
+</v>
+      </c>
+      <c r="AC14" t="str">
+        <v>Frequency - Prior to commencement of works</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="16"/>
+        <v>5.1 - CCTV</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="17"/>
+        <v>Inspection Point: Quality Control Activity - CCTV inspection to confirm pipeline conforms with specification</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="18"/>
+        <v>Acceptance Criteria - Pipeline will fail is any of the following is visible:_x000D_
+- pipe misalignment or deformation more than 5% of the pipe diameter_x000D_
+- defects such as open joints, potruding laterals, cracked barrels, or similar</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="19"/>
+        <v>Verifying Document - Test Records, CCTV footage</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="20"/>
+        <v>Frequency - Every section of pipe completed</v>
+      </c>
+      <c r="X15" t="str">
+        <f t="shared" si="21"/>
+        <v>Inspection Type (Visual, other) - On-Site Test</v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="22"/>
+        <v>Inspection: Key - H</v>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="23"/>
+        <v>Inspection: By - SP_x000D_
+QE_x000D_
+CM_x000D_
+ER</v>
+      </c>
+      <c r="AC15" t="str">
+        <v>Inspection Type (Visual, other) - Visual, Instrumental</v>
+      </c>
     </row>
     <row r="16" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5.2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="16"/>
+        <v>5.2 - Leak Testing</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="17"/>
+        <v>Inspection Point: Quality Control Activity - Tested in the presence of the Engineer or their representative_x000D_
+testing in accordance with AS/NZS 2566.2 Section 6.4</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="18"/>
+        <v>Acceptance Criteria - Engineer Approval</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="19"/>
+        <v>Verifying Document - Test Records</v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="20"/>
+        <v>Frequency - Every section of pipe installed</v>
+      </c>
+      <c r="X16" t="str">
+        <f t="shared" si="21"/>
+        <v>Inspection Type (Visual, other) - On-Site Test</v>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="22"/>
+        <v>Inspection: Key - H</v>
+      </c>
+      <c r="Z16" t="str">
+        <f t="shared" si="23"/>
+        <v>Inspection: By - SP_x000D_
+QE_x000D_
+CM_x000D_
+ER</v>
+      </c>
+      <c r="AC16" t="str">
+        <v>Inspection: Key - H</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5.3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="16"/>
+        <v>5.3 - Red pen markups</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">Inspection Point: Quality Control Activity - Complete mark up of any changes from supplied drawings </v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="18"/>
+        <v>Acceptance Criteria - Installation complete</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="19"/>
+        <v>Verifying Document - Original Drawings CHAR(AMP) Documentation</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="20"/>
+        <v>Frequency - After completion of pipe section</v>
+      </c>
+      <c r="X17" t="str">
+        <f t="shared" si="21"/>
+        <v>Inspection Type (Visual, other) - Measure CHAR(AMP) Record</v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="22"/>
+        <v>Inspection: Key - H</v>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="23"/>
+        <v>Inspection: By - SP_x000D_
+QE_x000D_
+CM_x000D_
+ER</v>
+      </c>
+      <c r="AC17" t="str">
+        <v>Inspection: By - SV
+SP
+QE
+PM
+ER</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5.4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="16"/>
+        <v>5.4 - As-Built Survey</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="17"/>
+        <v>Inspection Point: Quality Control Activity - At project completion</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="18"/>
+        <v>Acceptance Criteria - Engineer approval</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="19"/>
+        <v>Verifying Document - As-Built Drawings</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="20"/>
+        <v>Frequency - Completion of Project</v>
+      </c>
+      <c r="X18" t="str">
+        <f t="shared" si="21"/>
+        <v>Inspection Type (Visual, other) - Submission of Documentation</v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="22"/>
+        <v>Inspection: Key - R</v>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="23"/>
+        <v>Inspection: By - ER</v>
+      </c>
+      <c r="AC18" t="str">
+        <v>3.3 - Embedment Zone Materials - AP20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC19" t="str">
+        <v>Inspection Point: Quality Control Activity - Visual quality check AP20 is evenly graded granular material free of detritus</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC20" t="str">
+        <v>Acceptance Criteria - Material Approval by Quality Engineer</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC21" t="str">
+        <v>Verifying Document - Photograph</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC22" t="str">
+        <v>Frequency - On Delivery</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC23" t="str">
+        <v>Inspection Type (Visual, other) - Review CHAR(AMP) Approval</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC24" t="str">
+        <v>Inspection: Key - R</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-    </row>
-    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC25" t="str">
+        <v>Inspection: By - QE</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC26" t="str">
+        <v>3.4 - Backfill Material - AP65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC27" t="str">
+        <v>Inspection Point: Quality Control Activity - Submission of Test Sheets for review</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
-    </row>
-    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC28" t="str">
+        <v>Acceptance Criteria - Material Approval by Engineer Rep</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC29" t="str">
+        <v>Verifying Document - Test Certification</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC30" t="str">
+        <v>Frequency - Once</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC31" t="str">
+        <v>Inspection Type (Visual, other) - Review CHAR(AMP) Approval</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="1"/>
-    </row>
-    <row r="34" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC32" t="str">
+        <v>Inspection: Key - R</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC33" t="str">
+        <v>Inspection: By - QE
+ER</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC34" t="str">
+        <v>3.5 - Pavement Preparation Material - M440</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC35" t="str">
+        <v>Inspection Point: Quality Control Activity - Submission of Test Sheets for review</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC36" t="str">
+        <v>Acceptance Criteria - Material Approval by Engineer Rep</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC37" t="str">
+        <v>Verifying Document - Test Certification</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC38" t="str">
+        <v>Frequency - Once</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC39" t="str">
+        <v>Inspection Type (Visual, other) - Review CHAR(AMP) Approval</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC40" t="str">
+        <v>Inspection: Key - R</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC41" t="str">
+        <v>Inspection: By - QE
+ER</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC42" t="str">
+        <v>4.1 - Trench Excavation</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC43" t="str">
+        <v>Inspection Point: Quality Control Activity - - Excavate to achieve required depth to invert as per C111 to C113
+- Trench width to allow for sufficient clearance to accomodate trench shield and effective compaction between springline of the pipe and trench wall or an adjacent pipe
+- Floor of trench to be even across width and length</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC44" t="str">
+        <v>Acceptance Criteria - - Allow 150mm for bedding 
+-  Allow for cover as per long section drawing (minimum cover of 750mm).</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC45" t="str">
+        <v>Verifying Document - Photos, measurement checks</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
-    </row>
-    <row r="49" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC46" t="str">
+        <v>Frequency - During Installation</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC47" t="str">
+        <v>Inspection Type (Visual, other) - Visual</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC48" t="str">
+        <v>Inspection: Key - C</v>
+      </c>
+    </row>
+    <row r="49" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
-    </row>
-    <row r="53" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC49" t="str">
+        <v>Inspection: By - SP
+QE
+CM</v>
+      </c>
+    </row>
+    <row r="50" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC50" t="str">
+        <v>4.3 - Foundation</v>
+      </c>
+    </row>
+    <row r="51" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC51" t="str">
+        <v>Inspection Point: Quality Control Activity - Scala tests on base of trench</v>
+      </c>
+    </row>
+    <row r="52" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC52" t="str">
+        <v>Acceptance Criteria - Minimum of 3 blows per 100mm to achieve a CBR 5 or 100kPa Ground Bearing Pressure</v>
+      </c>
+    </row>
+    <row r="53" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC53" t="str">
+        <v>Verifying Document - Test results</v>
+      </c>
+    </row>
+    <row r="54" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC54" t="str">
+        <v>Frequency - During installation, per 20m</v>
+      </c>
+    </row>
+    <row r="55" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G55" s="1"/>
-    </row>
-    <row r="57" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC55" t="str">
+        <v>Inspection Type (Visual, other) - Visual, On site test</v>
+      </c>
+    </row>
+    <row r="56" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC56" t="str">
+        <v>Inspection: Key - H</v>
+      </c>
+    </row>
+    <row r="57" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
-    </row>
-    <row r="59" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC57" t="str">
+        <v>Inspection: By - SP
+QE
+ER</v>
+      </c>
+    </row>
+    <row r="58" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC58" t="str">
+        <v>4.2 - 40 Clean drain detail</v>
+      </c>
+    </row>
+    <row r="59" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC59" t="str">
+        <v>Inspection Point: Quality Control Activity - Install undercut detail if soft ground conditions or groundwater is encountered.</v>
+      </c>
+    </row>
+    <row r="60" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC60" t="str">
+        <v>Acceptance Criteria - - 200mm depth Clean 40 wrapped in Bidim A29 geotextile</v>
+      </c>
+    </row>
+    <row r="61" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC61" t="str">
+        <v>Verifying Document - Photos</v>
+      </c>
+    </row>
+    <row r="62" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC62" t="str">
+        <v>Frequency - During Installation</v>
+      </c>
+    </row>
+    <row r="63" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC63" t="str">
+        <v>Inspection Type (Visual, other) - Visual</v>
+      </c>
+    </row>
+    <row r="64" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC64" t="str">
+        <v>Inspection: Key - C CHAR(AMP) I</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC65" t="str">
+        <v>Inspection: By - SP
+QE
+ER</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
-    </row>
-    <row r="70" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC66" t="str">
+        <v>4.4 - Install Pipe</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC67" t="str">
+        <v>Inspection Point: Quality Control Activity - Pipe installed to grade as per drawing C111-C113 and referencing Project Specification - Appendix D2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC68" t="str">
+        <v>Acceptance Criteria - - Pipe not damaged during installation
+- Pipe installed to grade within tolerances specification GP 3.1.8</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC69" t="str">
+        <v>Verifying Document - Photos, Grade check sheet, Survey of position for asbuilt</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G70" s="1"/>
-    </row>
-    <row r="74" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC70" t="str">
+        <v>Frequency - During installation</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC71" t="str">
+        <v>Inspection Type (Visual, other) - Visual, instrumental</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC72" t="str">
+        <v>Inspection: Key - C CHAR(AMP) I</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC73" t="str">
+        <v>Inspection: By - SP
+QE
+ER</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC74" t="str">
+        <v>4.5 - Embedment zone</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC75" t="str">
+        <v>Inspection Point: Quality Control Activity - Embedment material shall be AP20 as approved by the Engineer (Refer section 3.3 of this ITP)</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
-    </row>
-    <row r="79" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC76" t="str">
+        <v>Acceptance Criteria - - Min 150mm bedding
+- 150mm overlay</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC77" t="str">
+        <v>Verifying Document - Photos
+Site Check Measurements</v>
+      </c>
+    </row>
+    <row r="78" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC78" t="str">
+        <v>Frequency - During Installation</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D79" s="1"/>
-    </row>
-    <row r="85" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC79" t="str">
+        <v>Inspection Type (Visual, other) - Visual, measurement check</v>
+      </c>
+    </row>
+    <row r="80" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC80" t="str">
+        <v>Inspection: Key - C</v>
+      </c>
+    </row>
+    <row r="81" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC81" t="str">
+        <v>Inspection: By - SP
+QE</v>
+      </c>
+    </row>
+    <row r="82" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC82" t="str">
+        <v>4.6 - Backfill and Compact</v>
+      </c>
+    </row>
+    <row r="83" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC83" t="str">
+        <v>Inspection Point: Quality Control Activity - Backfill AP65 in 200mm (Materials to be  layers of compacted material as approved bt the Engineer (Refer Section 3.4 of this ITP)
+- Compaction testing one test every two layers as required</v>
+      </c>
+    </row>
+    <row r="84" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC84" t="str">
+        <v>Acceptance Criteria - 95% MDD in roads, paths, and pavements</v>
+      </c>
+    </row>
+    <row r="85" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G85" s="1"/>
-    </row>
-    <row r="89" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC85" t="str">
+        <v>Verifying Document - Photos, Compaction test results</v>
+      </c>
+    </row>
+    <row r="86" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC86" t="str">
+        <v>Frequency - During Installation, compaction testing per 50m of pipeline or per straight section of pipeline at each alternate layer</v>
+      </c>
+    </row>
+    <row r="87" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC87" t="str">
+        <v>Inspection Type (Visual, other) - Visual, On Site test</v>
+      </c>
+    </row>
+    <row r="88" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC88" t="str">
+        <v>Inspection: Key - H</v>
+      </c>
+    </row>
+    <row r="89" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC89" t="str">
+        <v>Inspection: By - SP
+QE
+ER</v>
+      </c>
+    </row>
+    <row r="90" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC90" t="str">
+        <v>4.7 - Materials compaction</v>
+      </c>
+    </row>
+    <row r="91" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E91" s="1"/>
-    </row>
-    <row r="99" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC91" t="str">
+        <v>Inspection Point: Quality Control Activity - Each Layer (200mm) compaction using plate compactor 8No back and forward passes</v>
+      </c>
+    </row>
+    <row r="92" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC92" t="str">
+        <v>Acceptance Criteria - Compacted layer is 200mm</v>
+      </c>
+    </row>
+    <row r="93" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC93" t="str">
+        <v>Verifying Document - Photos, visual, measurement</v>
+      </c>
+    </row>
+    <row r="94" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC94" t="str">
+        <v>Frequency - 16No passes (8no x 2)</v>
+      </c>
+    </row>
+    <row r="95" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC95" t="str">
+        <v>Inspection Type (Visual, other) - Visual, Photograph</v>
+      </c>
+    </row>
+    <row r="96" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC96" t="str">
+        <v>Inspection: Key - V</v>
+      </c>
+    </row>
+    <row r="97" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC97" t="str">
+        <v>Inspection: By - SP
+QE
+ER</v>
+      </c>
+    </row>
+    <row r="98" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC98" t="str">
+        <v>4.8 - Pavement reinstatement and surfacing</v>
+      </c>
+    </row>
+    <row r="99" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC99" t="str">
+        <v>Inspection Point: Quality Control Activity - Place and compact M440 as approved by the Engineer (Refer Section 3.5 of this ITP) basecourse in preparation for 50mm asphalt</v>
+      </c>
+    </row>
+    <row r="100" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC100" t="str">
+        <v>Acceptance Criteria - - Average 98% MDD in roads with no test lower than 95%.
+- Over cut trench 100mm from trench wall
+- Prep 50mm below staright edge</v>
+      </c>
+    </row>
+    <row r="101" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E101" s="1"/>
-    </row>
-    <row r="143" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC101" t="str">
+        <v>Verifying Document - Photos, Compaction test results</v>
+      </c>
+    </row>
+    <row r="102" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC102" t="str">
+        <v>Frequency - During Installation, compaction testing per 50m of pipeline or per straight section of pipeline</v>
+      </c>
+    </row>
+    <row r="103" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC103" t="str">
+        <v>Inspection Type (Visual, other) - Visual, On Site test</v>
+      </c>
+    </row>
+    <row r="104" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC104" t="str">
+        <v>Inspection: Key - H</v>
+      </c>
+    </row>
+    <row r="105" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC105" t="str">
+        <v>Inspection: By - SP
+QE
+ER</v>
+      </c>
+    </row>
+    <row r="106" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC106" t="str">
+        <v>5.1 - CCTV</v>
+      </c>
+    </row>
+    <row r="107" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC107" t="str">
+        <v>Inspection Point: Quality Control Activity - CCTV inspection to confirm pipeline conforms with specification</v>
+      </c>
+    </row>
+    <row r="108" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC108" t="str">
+        <v>Acceptance Criteria - Pipeline will fail is any of the following is visible:
+- pipe misalignment or deformation more than 5% of the pipe diameter
+- defects such as open joints, potruding laterals, cracked barrels, or similar</v>
+      </c>
+    </row>
+    <row r="109" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC109" t="str">
+        <v>Verifying Document - Test Records, CCTV footage</v>
+      </c>
+    </row>
+    <row r="110" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC110" t="str">
+        <v>Frequency - Every section of pipe completed</v>
+      </c>
+    </row>
+    <row r="111" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC111" t="str">
+        <v>Inspection Type (Visual, other) - On-Site Test</v>
+      </c>
+    </row>
+    <row r="112" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC112" t="str">
+        <v>Inspection: Key - H</v>
+      </c>
+    </row>
+    <row r="113" spans="29:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC113" t="str">
+        <v>Inspection: By - SP
+QE
+CM
+ER</v>
+      </c>
+    </row>
+    <row r="114" spans="29:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC114" t="str">
+        <v>5.2 - Leak Testing</v>
+      </c>
+    </row>
+    <row r="115" spans="29:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC115" t="str">
+        <v>Inspection Point: Quality Control Activity - Tested in the presence of the Engineer or their representative
+testing in accordance with AS/NZS 2566.2 Section 6.4</v>
+      </c>
+    </row>
+    <row r="116" spans="29:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC116" t="str">
+        <v>Acceptance Criteria - Engineer Approval</v>
+      </c>
+    </row>
+    <row r="117" spans="29:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC117" t="str">
+        <v>Verifying Document - Test Records</v>
+      </c>
+    </row>
+    <row r="118" spans="29:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC118" t="str">
+        <v>Frequency - Every section of pipe installed</v>
+      </c>
+    </row>
+    <row r="119" spans="29:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC119" t="str">
+        <v>Inspection Type (Visual, other) - On-Site Test</v>
+      </c>
+    </row>
+    <row r="120" spans="29:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC120" t="str">
+        <v>Inspection: Key - H</v>
+      </c>
+    </row>
+    <row r="121" spans="29:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC121" t="str">
+        <v>Inspection: By - SP
+QE
+CM
+ER</v>
+      </c>
+    </row>
+    <row r="122" spans="29:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC122" t="str">
+        <v>5.3 - Red pen markups</v>
+      </c>
+    </row>
+    <row r="123" spans="29:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC123" t="str">
+        <v>Inspection Point: Quality Control Activity - Complete mark up of any changes from supplied drawings</v>
+      </c>
+    </row>
+    <row r="124" spans="29:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC124" t="str">
+        <v>Acceptance Criteria - Installation complete</v>
+      </c>
+    </row>
+    <row r="125" spans="29:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC125" t="str">
+        <v>Verifying Document - Original Drawings CHAR(AMP) Documentation</v>
+      </c>
+    </row>
+    <row r="126" spans="29:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC126" t="str">
+        <v>Frequency - After completion of pipe section</v>
+      </c>
+    </row>
+    <row r="127" spans="29:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC127" t="str">
+        <v>Inspection Type (Visual, other) - Measure CHAR(AMP) Record</v>
+      </c>
+    </row>
+    <row r="128" spans="29:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC128" t="str">
+        <v>Inspection: Key - H</v>
+      </c>
+    </row>
+    <row r="129" spans="4:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC129" t="str">
+        <v>Inspection: By - SP
+QE
+CM
+ER</v>
+      </c>
+    </row>
+    <row r="130" spans="4:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC130" t="str">
+        <v>5.4 - As-Built Survey</v>
+      </c>
+    </row>
+    <row r="131" spans="4:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC131" t="str">
+        <v>Inspection Point: Quality Control Activity - At project completion</v>
+      </c>
+    </row>
+    <row r="132" spans="4:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC132" t="str">
+        <v>Acceptance Criteria - Engineer approval</v>
+      </c>
+    </row>
+    <row r="133" spans="4:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC133" t="str">
+        <v>Verifying Document - As-Built Drawings</v>
+      </c>
+    </row>
+    <row r="134" spans="4:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC134" t="str">
+        <v>Frequency - Completion of Project</v>
+      </c>
+    </row>
+    <row r="135" spans="4:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC135" t="str">
+        <v>Inspection Type (Visual, other) - Submission of Documentation</v>
+      </c>
+    </row>
+    <row r="136" spans="4:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC136" t="str">
+        <v>Inspection: Key - R</v>
+      </c>
+    </row>
+    <row r="137" spans="4:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC137" t="str">
+        <v>Inspection: By - ER</v>
+      </c>
+    </row>
+    <row r="143" spans="4:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D143" s="1"/>
     </row>
     <row r="146" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
